--- a/data/fitness_development/pupae-data-manipulated.xlsx
+++ b/data/fitness_development/pupae-data-manipulated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_13/data/fitness_development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_14/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E5F9C3-EF67-3041-A308-4004FBFBACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{494E6997-1EA1-D24E-9CA9-F73364AC01D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F5BB593D-E9EA-D74E-B6AA-2AE9B17AED67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0790071-69A9-C243-B0ED-F5146F5DC312}">
-  <dimension ref="A1:D817"/>
+  <dimension ref="A1:D1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A805" zoomScale="241" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="B806" sqref="B806"/>
+    <sheetView tabSelected="1" topLeftCell="A990" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="F1005" sqref="F1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11883,6 +11883,2862 @@
         <v>7</v>
       </c>
     </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>1</v>
+      </c>
+      <c r="B818" t="s">
+        <v>3</v>
+      </c>
+      <c r="C818">
+        <v>259</v>
+      </c>
+      <c r="D818">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>1</v>
+      </c>
+      <c r="B819" t="s">
+        <v>4</v>
+      </c>
+      <c r="C819">
+        <v>259</v>
+      </c>
+      <c r="D819">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>2</v>
+      </c>
+      <c r="B820" t="s">
+        <v>3</v>
+      </c>
+      <c r="C820">
+        <v>259</v>
+      </c>
+      <c r="D820">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>2</v>
+      </c>
+      <c r="B821" t="s">
+        <v>4</v>
+      </c>
+      <c r="C821">
+        <v>259</v>
+      </c>
+      <c r="D821">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>3</v>
+      </c>
+      <c r="B822" t="s">
+        <v>3</v>
+      </c>
+      <c r="C822">
+        <v>259</v>
+      </c>
+      <c r="D822">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>3</v>
+      </c>
+      <c r="B823" t="s">
+        <v>4</v>
+      </c>
+      <c r="C823">
+        <v>259</v>
+      </c>
+      <c r="D823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>4</v>
+      </c>
+      <c r="B824" t="s">
+        <v>3</v>
+      </c>
+      <c r="C824">
+        <v>259</v>
+      </c>
+      <c r="D824">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>4</v>
+      </c>
+      <c r="B825" t="s">
+        <v>4</v>
+      </c>
+      <c r="C825">
+        <v>259</v>
+      </c>
+      <c r="D825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>5</v>
+      </c>
+      <c r="B826" t="s">
+        <v>3</v>
+      </c>
+      <c r="C826">
+        <v>259</v>
+      </c>
+      <c r="D826">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>5</v>
+      </c>
+      <c r="B827" t="s">
+        <v>4</v>
+      </c>
+      <c r="C827">
+        <v>259</v>
+      </c>
+      <c r="D827">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>6</v>
+      </c>
+      <c r="B828" t="s">
+        <v>3</v>
+      </c>
+      <c r="C828">
+        <v>259</v>
+      </c>
+      <c r="D828">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>6</v>
+      </c>
+      <c r="B829" t="s">
+        <v>4</v>
+      </c>
+      <c r="C829">
+        <v>259</v>
+      </c>
+      <c r="D829">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>7</v>
+      </c>
+      <c r="B830" t="s">
+        <v>3</v>
+      </c>
+      <c r="C830">
+        <v>259</v>
+      </c>
+      <c r="D830">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>7</v>
+      </c>
+      <c r="B831" t="s">
+        <v>4</v>
+      </c>
+      <c r="C831">
+        <v>259</v>
+      </c>
+      <c r="D831">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>8</v>
+      </c>
+      <c r="B832" t="s">
+        <v>3</v>
+      </c>
+      <c r="C832">
+        <v>259</v>
+      </c>
+      <c r="D832">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>8</v>
+      </c>
+      <c r="B833" t="s">
+        <v>4</v>
+      </c>
+      <c r="C833">
+        <v>259</v>
+      </c>
+      <c r="D833">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>9</v>
+      </c>
+      <c r="B834" t="s">
+        <v>3</v>
+      </c>
+      <c r="C834">
+        <v>259</v>
+      </c>
+      <c r="D834">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>9</v>
+      </c>
+      <c r="B835" t="s">
+        <v>4</v>
+      </c>
+      <c r="C835">
+        <v>259</v>
+      </c>
+      <c r="D835">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>10</v>
+      </c>
+      <c r="B836" t="s">
+        <v>3</v>
+      </c>
+      <c r="C836">
+        <v>259</v>
+      </c>
+      <c r="D836">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>10</v>
+      </c>
+      <c r="B837" t="s">
+        <v>4</v>
+      </c>
+      <c r="C837">
+        <v>259</v>
+      </c>
+      <c r="D837">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>11</v>
+      </c>
+      <c r="B838" t="s">
+        <v>3</v>
+      </c>
+      <c r="C838">
+        <v>259</v>
+      </c>
+      <c r="D838">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>11</v>
+      </c>
+      <c r="B839" t="s">
+        <v>4</v>
+      </c>
+      <c r="C839">
+        <v>259</v>
+      </c>
+      <c r="D839">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>12</v>
+      </c>
+      <c r="B840" t="s">
+        <v>3</v>
+      </c>
+      <c r="C840">
+        <v>259</v>
+      </c>
+      <c r="D840">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>12</v>
+      </c>
+      <c r="B841" t="s">
+        <v>4</v>
+      </c>
+      <c r="C841">
+        <v>259</v>
+      </c>
+      <c r="D841">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>13</v>
+      </c>
+      <c r="B842" t="s">
+        <v>3</v>
+      </c>
+      <c r="C842">
+        <v>259</v>
+      </c>
+      <c r="D842">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>13</v>
+      </c>
+      <c r="B843" t="s">
+        <v>4</v>
+      </c>
+      <c r="C843">
+        <v>259</v>
+      </c>
+      <c r="D843">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>15</v>
+      </c>
+      <c r="B844" t="s">
+        <v>3</v>
+      </c>
+      <c r="C844">
+        <v>259</v>
+      </c>
+      <c r="D844">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>14</v>
+      </c>
+      <c r="B845" t="s">
+        <v>4</v>
+      </c>
+      <c r="C845">
+        <v>259</v>
+      </c>
+      <c r="D845">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>15</v>
+      </c>
+      <c r="B846" t="s">
+        <v>3</v>
+      </c>
+      <c r="C846">
+        <v>259</v>
+      </c>
+      <c r="D846">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>15</v>
+      </c>
+      <c r="B847" t="s">
+        <v>4</v>
+      </c>
+      <c r="C847">
+        <v>259</v>
+      </c>
+      <c r="D847">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>16</v>
+      </c>
+      <c r="B848" t="s">
+        <v>3</v>
+      </c>
+      <c r="C848">
+        <v>259</v>
+      </c>
+      <c r="D848">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>16</v>
+      </c>
+      <c r="B849" t="s">
+        <v>4</v>
+      </c>
+      <c r="C849">
+        <v>259</v>
+      </c>
+      <c r="D849">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>17</v>
+      </c>
+      <c r="B850" t="s">
+        <v>3</v>
+      </c>
+      <c r="C850">
+        <v>259</v>
+      </c>
+      <c r="D850">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>17</v>
+      </c>
+      <c r="B851" t="s">
+        <v>4</v>
+      </c>
+      <c r="C851">
+        <v>259</v>
+      </c>
+      <c r="D851">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>18</v>
+      </c>
+      <c r="B852" t="s">
+        <v>3</v>
+      </c>
+      <c r="C852">
+        <v>259</v>
+      </c>
+      <c r="D852">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>18</v>
+      </c>
+      <c r="B853" t="s">
+        <v>4</v>
+      </c>
+      <c r="C853">
+        <v>259</v>
+      </c>
+      <c r="D853">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>19</v>
+      </c>
+      <c r="B854" t="s">
+        <v>3</v>
+      </c>
+      <c r="C854">
+        <v>259</v>
+      </c>
+      <c r="D854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>19</v>
+      </c>
+      <c r="B855" t="s">
+        <v>4</v>
+      </c>
+      <c r="C855">
+        <v>259</v>
+      </c>
+      <c r="D855">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>20</v>
+      </c>
+      <c r="B856" t="s">
+        <v>3</v>
+      </c>
+      <c r="C856">
+        <v>259</v>
+      </c>
+      <c r="D856">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>20</v>
+      </c>
+      <c r="B857" t="s">
+        <v>4</v>
+      </c>
+      <c r="C857">
+        <v>259</v>
+      </c>
+      <c r="D857">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>21</v>
+      </c>
+      <c r="B858" t="s">
+        <v>3</v>
+      </c>
+      <c r="C858">
+        <v>259</v>
+      </c>
+      <c r="D858">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>21</v>
+      </c>
+      <c r="B859" t="s">
+        <v>4</v>
+      </c>
+      <c r="C859">
+        <v>259</v>
+      </c>
+      <c r="D859">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>22</v>
+      </c>
+      <c r="B860" t="s">
+        <v>3</v>
+      </c>
+      <c r="C860">
+        <v>259</v>
+      </c>
+      <c r="D860">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>22</v>
+      </c>
+      <c r="B861" t="s">
+        <v>4</v>
+      </c>
+      <c r="C861">
+        <v>259</v>
+      </c>
+      <c r="D861">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>23</v>
+      </c>
+      <c r="B862" t="s">
+        <v>3</v>
+      </c>
+      <c r="C862">
+        <v>259</v>
+      </c>
+      <c r="D862">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>23</v>
+      </c>
+      <c r="B863" t="s">
+        <v>4</v>
+      </c>
+      <c r="C863">
+        <v>259</v>
+      </c>
+      <c r="D863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>24</v>
+      </c>
+      <c r="B864" t="s">
+        <v>3</v>
+      </c>
+      <c r="C864">
+        <v>259</v>
+      </c>
+      <c r="D864">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>24</v>
+      </c>
+      <c r="B865" t="s">
+        <v>4</v>
+      </c>
+      <c r="C865">
+        <v>259</v>
+      </c>
+      <c r="D865">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>25</v>
+      </c>
+      <c r="B866" t="s">
+        <v>3</v>
+      </c>
+      <c r="C866">
+        <v>259</v>
+      </c>
+      <c r="D866">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>25</v>
+      </c>
+      <c r="B867" t="s">
+        <v>4</v>
+      </c>
+      <c r="C867">
+        <v>259</v>
+      </c>
+      <c r="D867">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>26</v>
+      </c>
+      <c r="B868" t="s">
+        <v>3</v>
+      </c>
+      <c r="C868">
+        <v>259</v>
+      </c>
+      <c r="D868">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>26</v>
+      </c>
+      <c r="B869" t="s">
+        <v>4</v>
+      </c>
+      <c r="C869">
+        <v>259</v>
+      </c>
+      <c r="D869">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>27</v>
+      </c>
+      <c r="B870" t="s">
+        <v>3</v>
+      </c>
+      <c r="C870">
+        <v>259</v>
+      </c>
+      <c r="D870">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>27</v>
+      </c>
+      <c r="B871" t="s">
+        <v>4</v>
+      </c>
+      <c r="C871">
+        <v>259</v>
+      </c>
+      <c r="D871">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>28</v>
+      </c>
+      <c r="B872" t="s">
+        <v>3</v>
+      </c>
+      <c r="C872">
+        <v>259</v>
+      </c>
+      <c r="D872">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>28</v>
+      </c>
+      <c r="B873" t="s">
+        <v>4</v>
+      </c>
+      <c r="C873">
+        <v>259</v>
+      </c>
+      <c r="D873">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>29</v>
+      </c>
+      <c r="B874" t="s">
+        <v>3</v>
+      </c>
+      <c r="C874">
+        <v>259</v>
+      </c>
+      <c r="D874">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>29</v>
+      </c>
+      <c r="B875" t="s">
+        <v>4</v>
+      </c>
+      <c r="C875">
+        <v>259</v>
+      </c>
+      <c r="D875">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>30</v>
+      </c>
+      <c r="B876" t="s">
+        <v>3</v>
+      </c>
+      <c r="C876">
+        <v>259</v>
+      </c>
+      <c r="D876">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>30</v>
+      </c>
+      <c r="B877" t="s">
+        <v>4</v>
+      </c>
+      <c r="C877">
+        <v>259</v>
+      </c>
+      <c r="D877">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>31</v>
+      </c>
+      <c r="B878" t="s">
+        <v>3</v>
+      </c>
+      <c r="C878">
+        <v>259</v>
+      </c>
+      <c r="D878">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>31</v>
+      </c>
+      <c r="B879" t="s">
+        <v>4</v>
+      </c>
+      <c r="C879">
+        <v>259</v>
+      </c>
+      <c r="D879">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>32</v>
+      </c>
+      <c r="B880" t="s">
+        <v>3</v>
+      </c>
+      <c r="C880">
+        <v>259</v>
+      </c>
+      <c r="D880">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>32</v>
+      </c>
+      <c r="B881" t="s">
+        <v>4</v>
+      </c>
+      <c r="C881">
+        <v>259</v>
+      </c>
+      <c r="D881">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>33</v>
+      </c>
+      <c r="B882" t="s">
+        <v>3</v>
+      </c>
+      <c r="C882">
+        <v>259</v>
+      </c>
+      <c r="D882">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>33</v>
+      </c>
+      <c r="B883" t="s">
+        <v>4</v>
+      </c>
+      <c r="C883">
+        <v>259</v>
+      </c>
+      <c r="D883">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>34</v>
+      </c>
+      <c r="B884" t="s">
+        <v>3</v>
+      </c>
+      <c r="C884">
+        <v>259</v>
+      </c>
+      <c r="D884">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>34</v>
+      </c>
+      <c r="B885" t="s">
+        <v>4</v>
+      </c>
+      <c r="C885">
+        <v>259</v>
+      </c>
+      <c r="D885">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>1</v>
+      </c>
+      <c r="B886" t="s">
+        <v>3</v>
+      </c>
+      <c r="C886">
+        <v>269</v>
+      </c>
+      <c r="D886">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>1</v>
+      </c>
+      <c r="B887" t="s">
+        <v>4</v>
+      </c>
+      <c r="C887">
+        <v>269</v>
+      </c>
+      <c r="D887">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>2</v>
+      </c>
+      <c r="B888" t="s">
+        <v>3</v>
+      </c>
+      <c r="C888">
+        <v>269</v>
+      </c>
+      <c r="D888">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>2</v>
+      </c>
+      <c r="B889" t="s">
+        <v>4</v>
+      </c>
+      <c r="C889">
+        <v>269</v>
+      </c>
+      <c r="D889">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>3</v>
+      </c>
+      <c r="B890" t="s">
+        <v>3</v>
+      </c>
+      <c r="C890">
+        <v>269</v>
+      </c>
+      <c r="D890">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>3</v>
+      </c>
+      <c r="B891" t="s">
+        <v>4</v>
+      </c>
+      <c r="C891">
+        <v>269</v>
+      </c>
+      <c r="D891">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>4</v>
+      </c>
+      <c r="B892" t="s">
+        <v>3</v>
+      </c>
+      <c r="C892">
+        <v>269</v>
+      </c>
+      <c r="D892">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>4</v>
+      </c>
+      <c r="B893" t="s">
+        <v>4</v>
+      </c>
+      <c r="C893">
+        <v>269</v>
+      </c>
+      <c r="D893">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>5</v>
+      </c>
+      <c r="B894" t="s">
+        <v>3</v>
+      </c>
+      <c r="C894">
+        <v>269</v>
+      </c>
+      <c r="D894">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>5</v>
+      </c>
+      <c r="B895" t="s">
+        <v>4</v>
+      </c>
+      <c r="C895">
+        <v>269</v>
+      </c>
+      <c r="D895">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>6</v>
+      </c>
+      <c r="B896" t="s">
+        <v>3</v>
+      </c>
+      <c r="C896">
+        <v>269</v>
+      </c>
+      <c r="D896">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>6</v>
+      </c>
+      <c r="B897" t="s">
+        <v>4</v>
+      </c>
+      <c r="C897">
+        <v>269</v>
+      </c>
+      <c r="D897">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>7</v>
+      </c>
+      <c r="B898" t="s">
+        <v>3</v>
+      </c>
+      <c r="C898">
+        <v>269</v>
+      </c>
+      <c r="D898">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>7</v>
+      </c>
+      <c r="B899" t="s">
+        <v>4</v>
+      </c>
+      <c r="C899">
+        <v>269</v>
+      </c>
+      <c r="D899">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>8</v>
+      </c>
+      <c r="B900" t="s">
+        <v>3</v>
+      </c>
+      <c r="C900">
+        <v>269</v>
+      </c>
+      <c r="D900">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>8</v>
+      </c>
+      <c r="B901" t="s">
+        <v>4</v>
+      </c>
+      <c r="C901">
+        <v>269</v>
+      </c>
+      <c r="D901">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>9</v>
+      </c>
+      <c r="B902" t="s">
+        <v>3</v>
+      </c>
+      <c r="C902">
+        <v>269</v>
+      </c>
+      <c r="D902">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>9</v>
+      </c>
+      <c r="B903" t="s">
+        <v>4</v>
+      </c>
+      <c r="C903">
+        <v>269</v>
+      </c>
+      <c r="D903">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>10</v>
+      </c>
+      <c r="B904" t="s">
+        <v>3</v>
+      </c>
+      <c r="C904">
+        <v>269</v>
+      </c>
+      <c r="D904">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>10</v>
+      </c>
+      <c r="B905" t="s">
+        <v>4</v>
+      </c>
+      <c r="C905">
+        <v>269</v>
+      </c>
+      <c r="D905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>11</v>
+      </c>
+      <c r="B906" t="s">
+        <v>3</v>
+      </c>
+      <c r="C906">
+        <v>269</v>
+      </c>
+      <c r="D906">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>11</v>
+      </c>
+      <c r="B907" t="s">
+        <v>4</v>
+      </c>
+      <c r="C907">
+        <v>269</v>
+      </c>
+      <c r="D907">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>12</v>
+      </c>
+      <c r="B908" t="s">
+        <v>3</v>
+      </c>
+      <c r="C908">
+        <v>269</v>
+      </c>
+      <c r="D908">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>12</v>
+      </c>
+      <c r="B909" t="s">
+        <v>4</v>
+      </c>
+      <c r="C909">
+        <v>269</v>
+      </c>
+      <c r="D909">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>13</v>
+      </c>
+      <c r="B910" t="s">
+        <v>3</v>
+      </c>
+      <c r="C910">
+        <v>269</v>
+      </c>
+      <c r="D910">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>13</v>
+      </c>
+      <c r="B911" t="s">
+        <v>4</v>
+      </c>
+      <c r="C911">
+        <v>269</v>
+      </c>
+      <c r="D911">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>15</v>
+      </c>
+      <c r="B912" t="s">
+        <v>3</v>
+      </c>
+      <c r="C912">
+        <v>269</v>
+      </c>
+      <c r="D912">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>14</v>
+      </c>
+      <c r="B913" t="s">
+        <v>4</v>
+      </c>
+      <c r="C913">
+        <v>269</v>
+      </c>
+      <c r="D913">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>15</v>
+      </c>
+      <c r="B914" t="s">
+        <v>3</v>
+      </c>
+      <c r="C914">
+        <v>269</v>
+      </c>
+      <c r="D914">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>15</v>
+      </c>
+      <c r="B915" t="s">
+        <v>4</v>
+      </c>
+      <c r="C915">
+        <v>269</v>
+      </c>
+      <c r="D915">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>16</v>
+      </c>
+      <c r="B916" t="s">
+        <v>3</v>
+      </c>
+      <c r="C916">
+        <v>269</v>
+      </c>
+      <c r="D916">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>16</v>
+      </c>
+      <c r="B917" t="s">
+        <v>4</v>
+      </c>
+      <c r="C917">
+        <v>269</v>
+      </c>
+      <c r="D917">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>17</v>
+      </c>
+      <c r="B918" t="s">
+        <v>3</v>
+      </c>
+      <c r="C918">
+        <v>269</v>
+      </c>
+      <c r="D918">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>17</v>
+      </c>
+      <c r="B919" t="s">
+        <v>4</v>
+      </c>
+      <c r="C919">
+        <v>269</v>
+      </c>
+      <c r="D919">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>18</v>
+      </c>
+      <c r="B920" t="s">
+        <v>3</v>
+      </c>
+      <c r="C920">
+        <v>269</v>
+      </c>
+      <c r="D920">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>18</v>
+      </c>
+      <c r="B921" t="s">
+        <v>4</v>
+      </c>
+      <c r="C921">
+        <v>269</v>
+      </c>
+      <c r="D921">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>19</v>
+      </c>
+      <c r="B922" t="s">
+        <v>3</v>
+      </c>
+      <c r="C922">
+        <v>269</v>
+      </c>
+      <c r="D922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>19</v>
+      </c>
+      <c r="B923" t="s">
+        <v>4</v>
+      </c>
+      <c r="C923">
+        <v>269</v>
+      </c>
+      <c r="D923">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>20</v>
+      </c>
+      <c r="B924" t="s">
+        <v>3</v>
+      </c>
+      <c r="C924">
+        <v>269</v>
+      </c>
+      <c r="D924">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>20</v>
+      </c>
+      <c r="B925" t="s">
+        <v>4</v>
+      </c>
+      <c r="C925">
+        <v>269</v>
+      </c>
+      <c r="D925">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>21</v>
+      </c>
+      <c r="B926" t="s">
+        <v>3</v>
+      </c>
+      <c r="C926">
+        <v>269</v>
+      </c>
+      <c r="D926">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>21</v>
+      </c>
+      <c r="B927" t="s">
+        <v>4</v>
+      </c>
+      <c r="C927">
+        <v>269</v>
+      </c>
+      <c r="D927">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>22</v>
+      </c>
+      <c r="B928" t="s">
+        <v>3</v>
+      </c>
+      <c r="C928">
+        <v>269</v>
+      </c>
+      <c r="D928">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>22</v>
+      </c>
+      <c r="B929" t="s">
+        <v>4</v>
+      </c>
+      <c r="C929">
+        <v>269</v>
+      </c>
+      <c r="D929">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>23</v>
+      </c>
+      <c r="B930" t="s">
+        <v>3</v>
+      </c>
+      <c r="C930">
+        <v>269</v>
+      </c>
+      <c r="D930">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>23</v>
+      </c>
+      <c r="B931" t="s">
+        <v>4</v>
+      </c>
+      <c r="C931">
+        <v>269</v>
+      </c>
+      <c r="D931">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>24</v>
+      </c>
+      <c r="B932" t="s">
+        <v>3</v>
+      </c>
+      <c r="C932">
+        <v>269</v>
+      </c>
+      <c r="D932">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>24</v>
+      </c>
+      <c r="B933" t="s">
+        <v>4</v>
+      </c>
+      <c r="C933">
+        <v>269</v>
+      </c>
+      <c r="D933">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>25</v>
+      </c>
+      <c r="B934" t="s">
+        <v>3</v>
+      </c>
+      <c r="C934">
+        <v>269</v>
+      </c>
+      <c r="D934">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>25</v>
+      </c>
+      <c r="B935" t="s">
+        <v>4</v>
+      </c>
+      <c r="C935">
+        <v>269</v>
+      </c>
+      <c r="D935">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>26</v>
+      </c>
+      <c r="B936" t="s">
+        <v>3</v>
+      </c>
+      <c r="C936">
+        <v>269</v>
+      </c>
+      <c r="D936">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>26</v>
+      </c>
+      <c r="B937" t="s">
+        <v>4</v>
+      </c>
+      <c r="C937">
+        <v>269</v>
+      </c>
+      <c r="D937">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>27</v>
+      </c>
+      <c r="B938" t="s">
+        <v>3</v>
+      </c>
+      <c r="C938">
+        <v>269</v>
+      </c>
+      <c r="D938">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>27</v>
+      </c>
+      <c r="B939" t="s">
+        <v>4</v>
+      </c>
+      <c r="C939">
+        <v>269</v>
+      </c>
+      <c r="D939">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>28</v>
+      </c>
+      <c r="B940" t="s">
+        <v>3</v>
+      </c>
+      <c r="C940">
+        <v>269</v>
+      </c>
+      <c r="D940">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>28</v>
+      </c>
+      <c r="B941" t="s">
+        <v>4</v>
+      </c>
+      <c r="C941">
+        <v>269</v>
+      </c>
+      <c r="D941">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>29</v>
+      </c>
+      <c r="B942" t="s">
+        <v>3</v>
+      </c>
+      <c r="C942">
+        <v>269</v>
+      </c>
+      <c r="D942">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>29</v>
+      </c>
+      <c r="B943" t="s">
+        <v>4</v>
+      </c>
+      <c r="C943">
+        <v>269</v>
+      </c>
+      <c r="D943">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>30</v>
+      </c>
+      <c r="B944" t="s">
+        <v>3</v>
+      </c>
+      <c r="C944">
+        <v>269</v>
+      </c>
+      <c r="D944">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>30</v>
+      </c>
+      <c r="B945" t="s">
+        <v>4</v>
+      </c>
+      <c r="C945">
+        <v>269</v>
+      </c>
+      <c r="D945">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>31</v>
+      </c>
+      <c r="B946" t="s">
+        <v>3</v>
+      </c>
+      <c r="C946">
+        <v>269</v>
+      </c>
+      <c r="D946">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>31</v>
+      </c>
+      <c r="B947" t="s">
+        <v>4</v>
+      </c>
+      <c r="C947">
+        <v>269</v>
+      </c>
+      <c r="D947">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>32</v>
+      </c>
+      <c r="B948" t="s">
+        <v>3</v>
+      </c>
+      <c r="C948">
+        <v>269</v>
+      </c>
+      <c r="D948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>32</v>
+      </c>
+      <c r="B949" t="s">
+        <v>4</v>
+      </c>
+      <c r="C949">
+        <v>269</v>
+      </c>
+      <c r="D949">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>33</v>
+      </c>
+      <c r="B950" t="s">
+        <v>3</v>
+      </c>
+      <c r="C950">
+        <v>269</v>
+      </c>
+      <c r="D950">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>33</v>
+      </c>
+      <c r="B951" t="s">
+        <v>4</v>
+      </c>
+      <c r="C951">
+        <v>269</v>
+      </c>
+      <c r="D951">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>34</v>
+      </c>
+      <c r="B952" t="s">
+        <v>3</v>
+      </c>
+      <c r="C952">
+        <v>269</v>
+      </c>
+      <c r="D952">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>34</v>
+      </c>
+      <c r="B953" t="s">
+        <v>4</v>
+      </c>
+      <c r="C953">
+        <v>269</v>
+      </c>
+      <c r="D953">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>1</v>
+      </c>
+      <c r="B954" t="s">
+        <v>3</v>
+      </c>
+      <c r="C954">
+        <v>282</v>
+      </c>
+      <c r="D954">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>1</v>
+      </c>
+      <c r="B955" t="s">
+        <v>4</v>
+      </c>
+      <c r="C955">
+        <v>282</v>
+      </c>
+      <c r="D955">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>2</v>
+      </c>
+      <c r="B956" t="s">
+        <v>3</v>
+      </c>
+      <c r="C956">
+        <v>282</v>
+      </c>
+      <c r="D956">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>2</v>
+      </c>
+      <c r="B957" t="s">
+        <v>4</v>
+      </c>
+      <c r="C957">
+        <v>282</v>
+      </c>
+      <c r="D957">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>3</v>
+      </c>
+      <c r="B958" t="s">
+        <v>3</v>
+      </c>
+      <c r="C958">
+        <v>282</v>
+      </c>
+      <c r="D958">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>3</v>
+      </c>
+      <c r="B959" t="s">
+        <v>4</v>
+      </c>
+      <c r="C959">
+        <v>282</v>
+      </c>
+      <c r="D959">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>4</v>
+      </c>
+      <c r="B960" t="s">
+        <v>3</v>
+      </c>
+      <c r="C960">
+        <v>282</v>
+      </c>
+      <c r="D960">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>4</v>
+      </c>
+      <c r="B961" t="s">
+        <v>4</v>
+      </c>
+      <c r="C961">
+        <v>282</v>
+      </c>
+      <c r="D961">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>5</v>
+      </c>
+      <c r="B962" t="s">
+        <v>3</v>
+      </c>
+      <c r="C962">
+        <v>282</v>
+      </c>
+      <c r="D962">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>5</v>
+      </c>
+      <c r="B963" t="s">
+        <v>4</v>
+      </c>
+      <c r="C963">
+        <v>282</v>
+      </c>
+      <c r="D963">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>6</v>
+      </c>
+      <c r="B964" t="s">
+        <v>3</v>
+      </c>
+      <c r="C964">
+        <v>282</v>
+      </c>
+      <c r="D964">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>6</v>
+      </c>
+      <c r="B965" t="s">
+        <v>4</v>
+      </c>
+      <c r="C965">
+        <v>282</v>
+      </c>
+      <c r="D965">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>7</v>
+      </c>
+      <c r="B966" t="s">
+        <v>3</v>
+      </c>
+      <c r="C966">
+        <v>282</v>
+      </c>
+      <c r="D966">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>7</v>
+      </c>
+      <c r="B967" t="s">
+        <v>4</v>
+      </c>
+      <c r="C967">
+        <v>282</v>
+      </c>
+      <c r="D967">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>8</v>
+      </c>
+      <c r="B968" t="s">
+        <v>3</v>
+      </c>
+      <c r="C968">
+        <v>282</v>
+      </c>
+      <c r="D968">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>8</v>
+      </c>
+      <c r="B969" t="s">
+        <v>4</v>
+      </c>
+      <c r="C969">
+        <v>282</v>
+      </c>
+      <c r="D969">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>9</v>
+      </c>
+      <c r="B970" t="s">
+        <v>3</v>
+      </c>
+      <c r="C970">
+        <v>282</v>
+      </c>
+      <c r="D970">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>9</v>
+      </c>
+      <c r="B971" t="s">
+        <v>4</v>
+      </c>
+      <c r="C971">
+        <v>282</v>
+      </c>
+      <c r="D971">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>10</v>
+      </c>
+      <c r="B972" t="s">
+        <v>3</v>
+      </c>
+      <c r="C972">
+        <v>282</v>
+      </c>
+      <c r="D972">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>10</v>
+      </c>
+      <c r="B973" t="s">
+        <v>4</v>
+      </c>
+      <c r="C973">
+        <v>282</v>
+      </c>
+      <c r="D973">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>11</v>
+      </c>
+      <c r="B974" t="s">
+        <v>3</v>
+      </c>
+      <c r="C974">
+        <v>282</v>
+      </c>
+      <c r="D974">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>11</v>
+      </c>
+      <c r="B975" t="s">
+        <v>4</v>
+      </c>
+      <c r="C975">
+        <v>282</v>
+      </c>
+      <c r="D975">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>12</v>
+      </c>
+      <c r="B976" t="s">
+        <v>3</v>
+      </c>
+      <c r="C976">
+        <v>282</v>
+      </c>
+      <c r="D976">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>12</v>
+      </c>
+      <c r="B977" t="s">
+        <v>4</v>
+      </c>
+      <c r="C977">
+        <v>282</v>
+      </c>
+      <c r="D977">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>13</v>
+      </c>
+      <c r="B978" t="s">
+        <v>3</v>
+      </c>
+      <c r="C978">
+        <v>282</v>
+      </c>
+      <c r="D978">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>13</v>
+      </c>
+      <c r="B979" t="s">
+        <v>4</v>
+      </c>
+      <c r="C979">
+        <v>282</v>
+      </c>
+      <c r="D979">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>15</v>
+      </c>
+      <c r="B980" t="s">
+        <v>3</v>
+      </c>
+      <c r="C980">
+        <v>282</v>
+      </c>
+      <c r="D980">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>14</v>
+      </c>
+      <c r="B981" t="s">
+        <v>4</v>
+      </c>
+      <c r="C981">
+        <v>282</v>
+      </c>
+      <c r="D981">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>15</v>
+      </c>
+      <c r="B982" t="s">
+        <v>3</v>
+      </c>
+      <c r="C982">
+        <v>282</v>
+      </c>
+      <c r="D982">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>15</v>
+      </c>
+      <c r="B983" t="s">
+        <v>4</v>
+      </c>
+      <c r="C983">
+        <v>282</v>
+      </c>
+      <c r="D983">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>16</v>
+      </c>
+      <c r="B984" t="s">
+        <v>3</v>
+      </c>
+      <c r="C984">
+        <v>282</v>
+      </c>
+      <c r="D984">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>16</v>
+      </c>
+      <c r="B985" t="s">
+        <v>4</v>
+      </c>
+      <c r="C985">
+        <v>282</v>
+      </c>
+      <c r="D985">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>17</v>
+      </c>
+      <c r="B986" t="s">
+        <v>3</v>
+      </c>
+      <c r="C986">
+        <v>282</v>
+      </c>
+      <c r="D986">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>17</v>
+      </c>
+      <c r="B987" t="s">
+        <v>4</v>
+      </c>
+      <c r="C987">
+        <v>282</v>
+      </c>
+      <c r="D987">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>18</v>
+      </c>
+      <c r="B988" t="s">
+        <v>3</v>
+      </c>
+      <c r="C988">
+        <v>282</v>
+      </c>
+      <c r="D988">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>18</v>
+      </c>
+      <c r="B989" t="s">
+        <v>4</v>
+      </c>
+      <c r="C989">
+        <v>282</v>
+      </c>
+      <c r="D989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>19</v>
+      </c>
+      <c r="B990" t="s">
+        <v>3</v>
+      </c>
+      <c r="C990">
+        <v>282</v>
+      </c>
+      <c r="D990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>19</v>
+      </c>
+      <c r="B991" t="s">
+        <v>4</v>
+      </c>
+      <c r="C991">
+        <v>282</v>
+      </c>
+      <c r="D991">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>20</v>
+      </c>
+      <c r="B992" t="s">
+        <v>3</v>
+      </c>
+      <c r="C992">
+        <v>282</v>
+      </c>
+      <c r="D992">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>20</v>
+      </c>
+      <c r="B993" t="s">
+        <v>4</v>
+      </c>
+      <c r="C993">
+        <v>282</v>
+      </c>
+      <c r="D993">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>21</v>
+      </c>
+      <c r="B994" t="s">
+        <v>3</v>
+      </c>
+      <c r="C994">
+        <v>282</v>
+      </c>
+      <c r="D994">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>21</v>
+      </c>
+      <c r="B995" t="s">
+        <v>4</v>
+      </c>
+      <c r="C995">
+        <v>282</v>
+      </c>
+      <c r="D995">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>22</v>
+      </c>
+      <c r="B996" t="s">
+        <v>3</v>
+      </c>
+      <c r="C996">
+        <v>282</v>
+      </c>
+      <c r="D996">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>22</v>
+      </c>
+      <c r="B997" t="s">
+        <v>4</v>
+      </c>
+      <c r="C997">
+        <v>282</v>
+      </c>
+      <c r="D997">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>23</v>
+      </c>
+      <c r="B998" t="s">
+        <v>3</v>
+      </c>
+      <c r="C998">
+        <v>282</v>
+      </c>
+      <c r="D998">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>23</v>
+      </c>
+      <c r="B999" t="s">
+        <v>4</v>
+      </c>
+      <c r="C999">
+        <v>282</v>
+      </c>
+      <c r="D999">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>24</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1000">
+        <v>282</v>
+      </c>
+      <c r="D1000">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1001">
+        <v>24</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1001">
+        <v>282</v>
+      </c>
+      <c r="D1001">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <v>25</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1002">
+        <v>282</v>
+      </c>
+      <c r="D1002">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>25</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1003">
+        <v>282</v>
+      </c>
+      <c r="D1003">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>26</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1004">
+        <v>282</v>
+      </c>
+      <c r="D1004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>26</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1005">
+        <v>282</v>
+      </c>
+      <c r="D1005">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>27</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1006">
+        <v>282</v>
+      </c>
+      <c r="D1006">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>27</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1007">
+        <v>282</v>
+      </c>
+      <c r="D1007">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>28</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1008">
+        <v>282</v>
+      </c>
+      <c r="D1008">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>28</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1009">
+        <v>282</v>
+      </c>
+      <c r="D1009">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>29</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1010">
+        <v>282</v>
+      </c>
+      <c r="D1010">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>29</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1011">
+        <v>282</v>
+      </c>
+      <c r="D1011">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>30</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1012">
+        <v>282</v>
+      </c>
+      <c r="D1012">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>30</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1013">
+        <v>282</v>
+      </c>
+      <c r="D1013">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>31</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1014">
+        <v>282</v>
+      </c>
+      <c r="D1014">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>31</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1015">
+        <v>282</v>
+      </c>
+      <c r="D1015">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>32</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1016">
+        <v>282</v>
+      </c>
+      <c r="D1016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>32</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1017">
+        <v>282</v>
+      </c>
+      <c r="D1017">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>33</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1018">
+        <v>282</v>
+      </c>
+      <c r="D1018">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>33</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1019">
+        <v>282</v>
+      </c>
+      <c r="D1019">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>34</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1020">
+        <v>282</v>
+      </c>
+      <c r="D1020">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>34</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1021">
+        <v>282</v>
+      </c>
+      <c r="D1021">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/pupae-data-manipulated.xlsx
+++ b/data/fitness_development/pupae-data-manipulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_14/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{494E6997-1EA1-D24E-9CA9-F73364AC01D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0999FD07-11E6-6C48-8FA3-93065A0F0D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F5BB593D-E9EA-D74E-B6AA-2AE9B17AED67}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F5BB593D-E9EA-D74E-B6AA-2AE9B17AED67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="6">
   <si>
     <t>vial</t>
   </si>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0790071-69A9-C243-B0ED-F5146F5DC312}">
-  <dimension ref="A1:D1021"/>
+  <dimension ref="A1:D1089"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A990" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="F1005" sqref="F1005"/>
+    <sheetView tabSelected="1" topLeftCell="A1088" zoomScale="172" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="D1092" sqref="D1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14739,6 +14739,958 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>1</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1022">
+        <v>290</v>
+      </c>
+      <c r="D1022">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>1</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1023">
+        <v>290</v>
+      </c>
+      <c r="D1023">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>2</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1024">
+        <v>290</v>
+      </c>
+      <c r="D1024">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>2</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1025">
+        <v>290</v>
+      </c>
+      <c r="D1025">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>3</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1026">
+        <v>290</v>
+      </c>
+      <c r="D1026">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>3</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1027">
+        <v>290</v>
+      </c>
+      <c r="D1027">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>4</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1028">
+        <v>290</v>
+      </c>
+      <c r="D1028">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>4</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1029">
+        <v>290</v>
+      </c>
+      <c r="D1029">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>5</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1030">
+        <v>290</v>
+      </c>
+      <c r="D1030">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>5</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1031">
+        <v>290</v>
+      </c>
+      <c r="D1031">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>6</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1032">
+        <v>290</v>
+      </c>
+      <c r="D1032">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>6</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1033">
+        <v>290</v>
+      </c>
+      <c r="D1033">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>7</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1034">
+        <v>290</v>
+      </c>
+      <c r="D1034">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>7</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1035">
+        <v>290</v>
+      </c>
+      <c r="D1035">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>8</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1036">
+        <v>290</v>
+      </c>
+      <c r="D1036">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>8</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1037">
+        <v>290</v>
+      </c>
+      <c r="D1037">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>9</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1038">
+        <v>290</v>
+      </c>
+      <c r="D1038">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>9</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1039">
+        <v>290</v>
+      </c>
+      <c r="D1039">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>10</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1040">
+        <v>290</v>
+      </c>
+      <c r="D1040">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>10</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1041">
+        <v>290</v>
+      </c>
+      <c r="D1041">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>11</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1042">
+        <v>290</v>
+      </c>
+      <c r="D1042">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>11</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1043">
+        <v>290</v>
+      </c>
+      <c r="D1043">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>12</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1044">
+        <v>290</v>
+      </c>
+      <c r="D1044">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>12</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1045">
+        <v>290</v>
+      </c>
+      <c r="D1045">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>13</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1046">
+        <v>290</v>
+      </c>
+      <c r="D1046">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>13</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1047">
+        <v>290</v>
+      </c>
+      <c r="D1047">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>15</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1048">
+        <v>290</v>
+      </c>
+      <c r="D1048">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>14</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1049">
+        <v>290</v>
+      </c>
+      <c r="D1049">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>15</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1050">
+        <v>290</v>
+      </c>
+      <c r="D1050">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>15</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1051">
+        <v>290</v>
+      </c>
+      <c r="D1051">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>16</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1052">
+        <v>290</v>
+      </c>
+      <c r="D1052">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>16</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1053">
+        <v>290</v>
+      </c>
+      <c r="D1053">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>17</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1054">
+        <v>290</v>
+      </c>
+      <c r="D1054">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>17</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1055">
+        <v>290</v>
+      </c>
+      <c r="D1055">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>18</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1056">
+        <v>290</v>
+      </c>
+      <c r="D1056">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>18</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1057">
+        <v>290</v>
+      </c>
+      <c r="D1057">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>19</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1058">
+        <v>290</v>
+      </c>
+      <c r="D1058">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>19</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1059">
+        <v>290</v>
+      </c>
+      <c r="D1059">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>20</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1060">
+        <v>290</v>
+      </c>
+      <c r="D1060">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>20</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1061">
+        <v>290</v>
+      </c>
+      <c r="D1061">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>21</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1062">
+        <v>290</v>
+      </c>
+      <c r="D1062">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>21</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1063">
+        <v>290</v>
+      </c>
+      <c r="D1063">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>22</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1064">
+        <v>290</v>
+      </c>
+      <c r="D1064">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>22</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1065">
+        <v>290</v>
+      </c>
+      <c r="D1065">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>23</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1066">
+        <v>290</v>
+      </c>
+      <c r="D1066">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>23</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1067">
+        <v>290</v>
+      </c>
+      <c r="D1067">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>24</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1068">
+        <v>290</v>
+      </c>
+      <c r="D1068">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>24</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1069">
+        <v>290</v>
+      </c>
+      <c r="D1069">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>25</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1070">
+        <v>290</v>
+      </c>
+      <c r="D1070">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>25</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1071">
+        <v>290</v>
+      </c>
+      <c r="D1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>26</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1072">
+        <v>290</v>
+      </c>
+      <c r="D1072">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>26</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1073">
+        <v>290</v>
+      </c>
+      <c r="D1073">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>27</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1074">
+        <v>290</v>
+      </c>
+      <c r="D1074">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>27</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1075">
+        <v>290</v>
+      </c>
+      <c r="D1075">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>28</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1076">
+        <v>290</v>
+      </c>
+      <c r="D1076">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>28</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1077">
+        <v>290</v>
+      </c>
+      <c r="D1077">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>29</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1078">
+        <v>290</v>
+      </c>
+      <c r="D1078">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>29</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1079">
+        <v>290</v>
+      </c>
+      <c r="D1079">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>30</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1080">
+        <v>290</v>
+      </c>
+      <c r="D1080">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>30</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1081">
+        <v>290</v>
+      </c>
+      <c r="D1081">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>31</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1082">
+        <v>290</v>
+      </c>
+      <c r="D1082">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>31</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1083">
+        <v>290</v>
+      </c>
+      <c r="D1083">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>32</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1084">
+        <v>290</v>
+      </c>
+      <c r="D1084">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>32</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1085">
+        <v>290</v>
+      </c>
+      <c r="D1085">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>33</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1086">
+        <v>290</v>
+      </c>
+      <c r="D1086">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>33</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1087">
+        <v>290</v>
+      </c>
+      <c r="D1087">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>34</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1088">
+        <v>290</v>
+      </c>
+      <c r="D1088">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>34</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1089">
+        <v>290</v>
+      </c>
+      <c r="D1089">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
